--- a/1000companydataset.xlsx
+++ b/1000companydataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elime\PycharmProjects\-KR-1000companyCrawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B8CD54-148C-48D4-9658-F83E2629EDD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0752AB03-CD5B-41F9-9CE0-D41E50DCCDE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3498,15 +3498,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="4" hidden="1" customWidth="1"/>
     <col min="6" max="8" width="6.88671875" style="4" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" style="2" hidden="1" customWidth="1"/>
@@ -42064,6 +42065,6 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>